--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prelu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E12CAC62-429A-4E15-AE50-198282140FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F20598-B562-49DB-85DF-B8EDAC08D0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EAAD494-42DC-40B2-AB15-E6711ECEC79B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7EAAD494-42DC-40B2-AB15-E6711ECEC79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Datum</t>
   </si>
@@ -46,14 +46,18 @@
   <si>
     <t>Förbrukning (kWh)</t>
   </si>
+  <si>
+    <t>Tidpunkt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#\ ##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -115,6 +119,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -431,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E3B3DE-DB45-40CC-842E-64568C677C67}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,9 +452,10 @@
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -454,8 +465,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45017</v>
       </c>
@@ -465,8 +479,11 @@
       <c r="C2" s="2">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="5">
+        <v>45017.833333333299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45018</v>
       </c>
@@ -476,8 +493,11 @@
       <c r="C3" s="2">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="5">
+        <v>45018.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45019</v>
       </c>
@@ -487,8 +507,11 @@
       <c r="C4" s="2">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="5">
+        <v>45019.916666666701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45020</v>
       </c>
@@ -498,8 +521,11 @@
       <c r="C5" s="2">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="5">
+        <v>45020.416666666701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45021</v>
       </c>
@@ -509,8 +535,11 @@
       <c r="C6" s="2">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="5">
+        <v>45021.916666666701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45022</v>
       </c>
@@ -520,8 +549,11 @@
       <c r="C7" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="5">
+        <v>45022.791666666701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45023</v>
       </c>
@@ -531,8 +563,11 @@
       <c r="C8" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="5">
+        <v>45023.791666666701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45024</v>
       </c>
@@ -542,8 +577,11 @@
       <c r="C9" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="5">
+        <v>45024.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45025</v>
       </c>
@@ -553,8 +591,11 @@
       <c r="C10" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="5">
+        <v>45025.833333333299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45026</v>
       </c>
@@ -564,8 +605,11 @@
       <c r="C11" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="5">
+        <v>45026.916666666701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45027</v>
       </c>
@@ -575,8 +619,11 @@
       <c r="C12" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="5">
+        <v>45027.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45028</v>
       </c>
@@ -586,8 +633,11 @@
       <c r="C13" s="2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="5">
+        <v>45028.958333333299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45029</v>
       </c>
@@ -597,8 +647,11 @@
       <c r="C14" s="2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="5">
+        <v>45029.458333333299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45030</v>
       </c>
@@ -608,8 +661,11 @@
       <c r="C15" s="2">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>45030.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45031</v>
       </c>
@@ -619,8 +675,11 @@
       <c r="C16" s="2">
         <v>1.27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <v>45031.958333333299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45032</v>
       </c>
@@ -630,8 +689,11 @@
       <c r="C17" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="5">
+        <v>45032.041666666701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45033</v>
       </c>
@@ -641,8 +703,11 @@
       <c r="C18" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="5">
+        <v>45033.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45034</v>
       </c>
@@ -652,8 +717,11 @@
       <c r="C19" s="2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="5">
+        <v>45034.833333333299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45035</v>
       </c>
@@ -663,8 +731,11 @@
       <c r="C20" s="2">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="5">
+        <v>45035.458333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45036</v>
       </c>
@@ -674,8 +745,11 @@
       <c r="C21" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="5">
+        <v>45036.958333333299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45037</v>
       </c>
@@ -685,8 +759,11 @@
       <c r="C22" s="2">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="5">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45038</v>
       </c>
@@ -696,8 +773,11 @@
       <c r="C23" s="2">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
+        <v>45038.916666666701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45039</v>
       </c>
@@ -707,8 +787,11 @@
       <c r="C24" s="2">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="5">
+        <v>45039.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45040</v>
       </c>
@@ -718,8 +801,11 @@
       <c r="C25" s="2">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="5">
+        <v>45040.958333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45041</v>
       </c>
@@ -729,8 +815,11 @@
       <c r="C26" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="5">
+        <v>45041.166666666701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45042</v>
       </c>
@@ -740,8 +829,11 @@
       <c r="C27" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="5">
+        <v>45042.958333333299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45043</v>
       </c>
@@ -751,8 +843,11 @@
       <c r="C28" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="5">
+        <v>45043.916666666701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45044</v>
       </c>
@@ -762,8 +857,11 @@
       <c r="C29" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="5">
+        <v>45044.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45045</v>
       </c>
@@ -773,8 +871,11 @@
       <c r="C30" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="5">
+        <v>45045.916666666701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45046</v>
       </c>
@@ -783,6 +884,9 @@
       </c>
       <c r="C31" s="2">
         <v>0.15</v>
+      </c>
+      <c r="D31" s="5">
+        <v>45046</v>
       </c>
     </row>
   </sheetData>
